--- a/data/vasculitis.data.xlsx
+++ b/data/vasculitis.data.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thitho01\Coding\VasculitsFigures\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D091FAC4-64E7-40F5-8B31-D0A918DCC97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,138 +27,134 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="41">
   <si>
-    <t xml:space="preserve">number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t2star</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vasc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cortex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medulla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chronical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN33a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN33b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN23a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpgn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN23b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN39a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN39b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">healthy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P10</t>
+    <t>number</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>roi</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>adc</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>asl</t>
+  </si>
+  <si>
+    <t>t2star</t>
+  </si>
+  <si>
+    <t>LN07</t>
+  </si>
+  <si>
+    <t>vasc</t>
+  </si>
+  <si>
+    <t>cortex</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>medulla</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>LN15</t>
+  </si>
+  <si>
+    <t>LN16</t>
+  </si>
+  <si>
+    <t>LN41</t>
+  </si>
+  <si>
+    <t>LN13</t>
+  </si>
+  <si>
+    <t>chronical</t>
+  </si>
+  <si>
+    <t>LN19</t>
+  </si>
+  <si>
+    <t>LN33a</t>
+  </si>
+  <si>
+    <t>LN33b</t>
+  </si>
+  <si>
+    <t>LN59</t>
+  </si>
+  <si>
+    <t>LN23a</t>
+  </si>
+  <si>
+    <t>rpgn</t>
+  </si>
+  <si>
+    <t>LN23b</t>
+  </si>
+  <si>
+    <t>LN39a</t>
+  </si>
+  <si>
+    <t>LN39b</t>
+  </si>
+  <si>
+    <t>LN53</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,26 +163,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,138 +184,115 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="3">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Standard 2" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -355,7 +324,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -379,7 +348,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -439,918 +408,917 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="n">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
         <v>1815</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>174</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>217</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="2">
         <v>50.54</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
         <v>2153</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="2">
         <v>135</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="2">
         <v>512</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="2">
         <v>92.5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2">
         <v>2063</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2">
         <v>270</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="2">
         <v>257</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2">
         <v>46.14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="n">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3">
         <v>1973</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="3">
         <v>242</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3">
         <v>369</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="3">
         <v>37.86</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="n">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
         <v>1909</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2">
         <v>224</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2">
         <v>307</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="2">
         <v>55.93</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
         <v>1819</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2">
         <v>321</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="2">
         <v>344</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2">
         <v>29.46</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
         <v>1610</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2">
         <v>169</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="2">
         <v>295</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="2">
         <v>47.92</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="3" t="n">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3">
         <v>1530</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="3">
         <v>282</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="3">
         <v>422</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="3">
         <v>27.64</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2">
         <v>1743</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2">
         <v>194</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>287</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="2">
         <v>53.8</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
         <v>1975</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2">
         <v>264</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>307</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="2">
         <v>46.05</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2">
         <v>1869</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="2">
         <v>227</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="2">
         <v>400</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="2">
         <v>48.82</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="3" t="n">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3">
         <v>1609</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="3">
         <v>316</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="3">
         <v>307</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="3">
         <v>46.05</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2" t="n">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
         <v>1916</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2">
         <v>248</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="2">
         <v>177</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="2">
         <v>46.95</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2" t="n">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2">
         <v>1894</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="2">
         <v>257</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="2">
         <v>290</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="2">
         <v>28.13</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="n">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2">
         <v>1851</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="2">
         <v>213</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="2">
         <v>235</v>
       </c>
-      <c r="I16" s="2" t="n">
-        <v>39.38</v>
+      <c r="I16" s="2">
+        <v>39.380000000000003</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="3" t="n">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3">
         <v>1902</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="3">
         <v>238</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" s="3">
         <v>450</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="3">
         <v>32.08</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="2" t="n">
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2">
         <v>1957</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2">
         <v>209</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="2">
         <v>505</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="2">
         <v>51.5</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2" t="n">
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2">
         <v>1413</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="2">
         <v>613</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="2">
         <v>148</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="2">
         <v>20.54</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="2" t="n">
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2">
         <v>2043</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="2">
         <v>154</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="2">
         <v>247</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="2">
         <v>67.31</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="3" t="n">
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="3">
         <v>1925</v>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="G21" s="3">
         <v>210</v>
       </c>
-      <c r="H21" s="3" t="n">
+      <c r="H21" s="3">
         <v>408</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="3">
         <v>43.38</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="2" t="n">
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2">
         <v>1841</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2">
         <v>273</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="2">
         <v>237</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="2">
         <v>51.29</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2" t="n">
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2">
         <v>1474</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="2">
         <v>370</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="2">
         <v>147</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="2">
         <v>58.14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="2" t="n">
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2">
         <v>1840</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="2">
         <v>202</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="2">
         <v>222</v>
       </c>
-      <c r="I24" s="2" t="n">
-        <v>64.54</v>
+      <c r="I24" s="2">
+        <v>64.540000000000006</v>
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="3" t="n">
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="3">
         <v>1470</v>
       </c>
-      <c r="G25" s="3" t="n">
+      <c r="G25" s="3">
         <v>307</v>
       </c>
-      <c r="H25" s="3" t="n">
+      <c r="H25" s="3">
         <v>130</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="3">
         <v>35.9</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="2" t="n">
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2">
         <v>1941</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="2">
         <v>130</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="2">
         <v>146</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="2">
         <v>51</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2" t="n">
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2">
         <v>1461</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="2">
         <v>323</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="2">
         <v>160</v>
       </c>
-      <c r="I27" s="2" t="n">
-        <v>36.2</v>
+      <c r="I27" s="2">
+        <v>36.200000000000003</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2" t="n">
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2">
         <v>1829</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="2">
         <v>74.17</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="2">
         <v>135</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="2">
         <v>50.19</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="3" t="n">
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="3">
         <v>1714</v>
       </c>
-      <c r="G29" s="3" t="n">
+      <c r="G29" s="3">
         <v>340</v>
       </c>
-      <c r="H29" s="3" t="n">
+      <c r="H29" s="3">
         <v>87.6</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="3">
         <v>15.55</v>
       </c>
       <c r="M29" s="2"/>
@@ -1358,65 +1326,65 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="2" t="n">
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2">
         <v>1903</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="2">
         <v>131</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="2">
         <v>58</v>
       </c>
-      <c r="I30" s="2" t="n">
-        <v>39.13</v>
+      <c r="I30" s="2">
+        <v>39.130000000000003</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2" t="n">
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2">
         <v>2040</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="2">
         <v>385</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="2">
         <v>244</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="2">
         <v>7.82</v>
       </c>
       <c r="M31" s="2"/>
@@ -1424,197 +1392,197 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="2" t="n">
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2">
         <v>1874</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="2">
         <v>174</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="2">
         <v>160</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="2">
         <v>34.94</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="3" t="n">
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="3">
         <v>2092</v>
       </c>
-      <c r="G33" s="3" t="n">
+      <c r="G33" s="3">
         <v>225</v>
       </c>
-      <c r="H33" s="3" t="n">
+      <c r="H33" s="3">
         <v>112</v>
       </c>
-      <c r="I33" s="3" t="n">
+      <c r="I33" s="3">
         <v>11.41</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="2" t="n">
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2">
         <v>1218</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="2">
         <v>272</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="2">
         <v>189</v>
       </c>
-      <c r="I34" s="2" t="n">
-        <v>80.21</v>
+      <c r="I34" s="2">
+        <v>80.209999999999994</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="2" t="n">
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="2">
         <v>1236</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="2">
         <v>401</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="2">
         <v>252</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="2">
         <v>27.19</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="2" t="n">
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="2">
         <v>1539</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="2">
         <v>240</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="2">
         <v>257</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" s="2">
         <v>40.06</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="3" t="n">
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="3">
         <v>1869</v>
       </c>
-      <c r="G37" s="3" t="n">
+      <c r="G37" s="3">
         <v>594</v>
       </c>
-      <c r="H37" s="3" t="n">
+      <c r="H37" s="3">
         <v>164</v>
       </c>
-      <c r="I37" s="3" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="I37" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>9</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1623,27 +1591,27 @@
       <c r="C38" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="2" t="n">
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="2">
         <v>1839</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="2">
         <v>110</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="2">
         <v>213</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="2">
         <v>29.95</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>9</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -1652,27 +1620,27 @@
       <c r="C39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="2" t="n">
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="2">
         <v>1599</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="2">
         <v>258</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="2">
         <v>317</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="2">
         <v>30.19</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>9</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -1681,27 +1649,27 @@
       <c r="C40" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="2" t="n">
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="2">
         <v>1872</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="2">
         <v>137</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="2">
         <v>253</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I40" s="2">
         <v>24.94</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>9</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -1710,28 +1678,28 @@
       <c r="C41" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="3" t="n">
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="3">
         <v>1873</v>
       </c>
-      <c r="G41" s="3" t="n">
+      <c r="G41" s="3">
         <v>214</v>
       </c>
-      <c r="H41" s="3" t="n">
+      <c r="H41" s="3">
         <v>465</v>
       </c>
-      <c r="I41" s="3" t="n">
+      <c r="I41" s="3">
         <v>27.88</v>
       </c>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>10</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -1740,30 +1708,30 @@
       <c r="C42" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="2" t="n">
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="2">
         <v>2002</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="2">
         <v>144</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="2">
         <v>209</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="2">
         <v>22.38</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>10</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -1772,30 +1740,30 @@
       <c r="C43" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="2" t="n">
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="2">
         <v>2160</v>
       </c>
-      <c r="G43" s="2" t="n">
+      <c r="G43" s="2">
         <v>267</v>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="2">
         <v>279</v>
       </c>
-      <c r="I43" s="2" t="n">
+      <c r="I43" s="2">
         <v>20.82</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>10</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -1804,30 +1772,30 @@
       <c r="C44" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="2" t="n">
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="2">
         <v>1860</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="G44" s="2">
         <v>200</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="2">
         <v>193</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="2">
         <v>20.9</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>10</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -1836,30 +1804,30 @@
       <c r="C45" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="3" t="n">
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="3">
         <v>1856</v>
       </c>
-      <c r="G45" s="3" t="n">
+      <c r="G45" s="3">
         <v>221</v>
       </c>
-      <c r="H45" s="3" t="n">
+      <c r="H45" s="3">
         <v>289</v>
       </c>
-      <c r="I45" s="3" t="n">
+      <c r="I45" s="3">
         <v>22.44</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1868,30 +1836,30 @@
       <c r="C46" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="2" t="n">
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="2">
         <v>1847</v>
       </c>
-      <c r="G46" s="2" t="n">
+      <c r="G46" s="2">
         <v>160</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="2">
         <v>170</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="I46" s="2">
         <v>44.19</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1900,30 +1868,30 @@
       <c r="C47" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="2" t="n">
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="2">
         <v>1089</v>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="G47" s="2">
         <v>370</v>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="2">
         <v>344</v>
       </c>
-      <c r="I47" s="2" t="n">
+      <c r="I47" s="2">
         <v>24.13</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1932,30 +1900,30 @@
       <c r="C48" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="2" t="n">
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="2">
         <v>1934</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="G48" s="2">
         <v>198</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="2">
         <v>191</v>
       </c>
-      <c r="I48" s="2" t="n">
-        <v>38.13</v>
+      <c r="I48" s="2">
+        <v>38.130000000000003</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1964,27 +1932,27 @@
       <c r="C49" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="3" t="n">
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="3">
         <v>1555</v>
       </c>
-      <c r="G49" s="3" t="n">
+      <c r="G49" s="3">
         <v>456</v>
       </c>
-      <c r="H49" s="3" t="n">
+      <c r="H49" s="3">
         <v>219</v>
       </c>
-      <c r="I49" s="3" t="n">
+      <c r="I49" s="3">
         <v>20.47</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>12</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -1993,27 +1961,27 @@
       <c r="C50" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="2" t="n">
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="2">
         <v>2076</v>
       </c>
-      <c r="G50" s="2" t="n">
+      <c r="G50" s="2">
         <v>249</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="2">
         <v>233</v>
       </c>
-      <c r="I50" s="2" t="n">
+      <c r="I50" s="2">
         <v>48.56</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>12</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -2022,27 +1990,27 @@
       <c r="C51" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="2" t="n">
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="2">
         <v>1610</v>
       </c>
-      <c r="G51" s="2" t="n">
+      <c r="G51" s="2">
         <v>301</v>
       </c>
-      <c r="H51" s="2" t="n">
+      <c r="H51" s="2">
         <v>150</v>
       </c>
-      <c r="I51" s="2" t="n">
+      <c r="I51" s="2">
         <v>15.5</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>12</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -2051,27 +2019,27 @@
       <c r="C52" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="2" t="n">
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="2">
         <v>1736</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="G52" s="2">
         <v>143</v>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="H52" s="2">
         <v>222</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="I52" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>12</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -2080,27 +2048,27 @@
       <c r="C53" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="3" t="n">
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="3">
         <v>1396</v>
       </c>
-      <c r="G53" s="3" t="n">
+      <c r="G53" s="3">
         <v>500</v>
       </c>
-      <c r="H53" s="3" t="n">
+      <c r="H53" s="3">
         <v>103</v>
       </c>
-      <c r="I53" s="3" t="n">
+      <c r="I53" s="3">
         <v>16.25</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>13</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -2109,30 +2077,30 @@
       <c r="C54" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="2" t="n">
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="2">
         <v>1957</v>
       </c>
-      <c r="G54" s="2" t="n">
+      <c r="G54" s="2">
         <v>224</v>
       </c>
-      <c r="H54" s="2" t="n">
+      <c r="H54" s="2">
         <v>186</v>
       </c>
-      <c r="I54" s="2" t="n">
+      <c r="I54" s="2">
         <v>16.29</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>13</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -2141,30 +2109,30 @@
       <c r="C55" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="2" t="n">
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="2">
         <v>1609</v>
       </c>
-      <c r="G55" s="2" t="n">
+      <c r="G55" s="2">
         <v>386</v>
       </c>
-      <c r="H55" s="2" t="n">
+      <c r="H55" s="2">
         <v>228</v>
       </c>
-      <c r="I55" s="2" t="n">
+      <c r="I55" s="2">
         <v>32</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>13</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -2173,30 +2141,30 @@
       <c r="C56" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="2" t="n">
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="2">
         <v>1995</v>
       </c>
-      <c r="G56" s="2" t="n">
+      <c r="G56" s="2">
         <v>232</v>
       </c>
-      <c r="H56" s="2" t="n">
+      <c r="H56" s="2">
         <v>109</v>
       </c>
-      <c r="I56" s="2" t="n">
+      <c r="I56" s="2">
         <v>13.17</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>13</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -2205,400 +2173,400 @@
       <c r="C57" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="3" t="n">
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="3">
         <v>1686</v>
       </c>
-      <c r="G57" s="3" t="n">
+      <c r="G57" s="3">
         <v>341</v>
       </c>
-      <c r="H57" s="3" t="n">
+      <c r="H57" s="3">
         <v>79</v>
       </c>
-      <c r="I57" s="3" t="n">
+      <c r="I57" s="3">
         <v>46.73</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B58" s="0" t="s">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
         <v>30</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="2" t="n">
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="2">
         <v>2049</v>
       </c>
-      <c r="G58" s="2" t="n">
+      <c r="G58" s="2">
         <v>208</v>
       </c>
-      <c r="H58" s="2" t="n">
+      <c r="H58" s="2">
         <v>276</v>
       </c>
-      <c r="I58" s="2" t="n">
-        <v>131</v>
+      <c r="I58" s="6">
+        <v>56</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B59" s="0" t="s">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
         <v>30</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="2" t="n">
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="2">
         <v>2031</v>
       </c>
-      <c r="G59" s="2" t="n">
+      <c r="G59" s="2">
         <v>192.666666666667</v>
       </c>
-      <c r="H59" s="2" t="n">
+      <c r="H59" s="2">
         <v>316</v>
       </c>
-      <c r="I59" s="2" t="n">
-        <v>128.666666666667</v>
+      <c r="I59" s="6">
+        <v>20</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B60" s="0" t="s">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
         <v>30</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="2" t="n">
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="2">
         <v>1888</v>
       </c>
-      <c r="G60" s="2" t="n">
+      <c r="G60" s="2">
         <v>217</v>
       </c>
-      <c r="H60" s="2" t="n">
+      <c r="H60" s="2">
         <v>263</v>
       </c>
-      <c r="I60" s="2" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B61" s="0" t="s">
+      <c r="I60" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
         <v>30</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="3" t="n">
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="3">
         <v>1918</v>
       </c>
-      <c r="G61" s="3" t="n">
+      <c r="G61" s="3">
         <v>234</v>
       </c>
-      <c r="H61" s="3" t="n">
-        <v>286.666666666667</v>
-      </c>
-      <c r="I61" s="3" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="H61" s="3">
+        <v>286.66666666666703</v>
+      </c>
+      <c r="I61" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>15</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>32</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="2" t="n">
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="2">
         <v>1874</v>
       </c>
-      <c r="G62" s="2" t="n">
+      <c r="G62" s="2">
         <v>200</v>
       </c>
-      <c r="H62" s="2" t="n">
+      <c r="H62" s="2">
         <v>279</v>
       </c>
-      <c r="I62" s="2" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="I62" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>15</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>32</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="2" t="n">
-        <v>1818.33333333333</v>
-      </c>
-      <c r="G63" s="2" t="n">
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1818.3333333333301</v>
+      </c>
+      <c r="G63" s="2">
         <v>215</v>
       </c>
-      <c r="H63" s="2" t="n">
+      <c r="H63" s="2">
         <v>297</v>
       </c>
-      <c r="I63" s="2" t="n">
-        <v>113.333333333333</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="I63" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>15</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="2" t="n">
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="2">
         <v>1906</v>
       </c>
-      <c r="G64" s="2" t="n">
+      <c r="G64" s="2">
         <v>189</v>
       </c>
-      <c r="H64" s="2" t="n">
+      <c r="H64" s="2">
         <v>294</v>
       </c>
-      <c r="I64" s="2" t="n">
-        <v>126</v>
+      <c r="I64" s="6">
+        <v>61</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>15</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>32</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D65" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="3" t="n">
-        <v>1881.33333333333</v>
-      </c>
-      <c r="G65" s="3" t="n">
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1881.3333333333301</v>
+      </c>
+      <c r="G65" s="3">
         <v>159.333333333333</v>
       </c>
-      <c r="H65" s="3" t="n">
-        <v>338.666666666667</v>
-      </c>
-      <c r="I65" s="3" t="n">
-        <v>123.333333333333</v>
+      <c r="H65" s="3">
+        <v>338.66666666666703</v>
+      </c>
+      <c r="I65" s="7">
+        <v>31</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>16</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>33</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="2" t="n">
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="2">
         <v>2041</v>
       </c>
-      <c r="G66" s="2" t="n">
+      <c r="G66" s="2">
         <v>219</v>
       </c>
-      <c r="H66" s="2" t="n">
+      <c r="H66" s="2">
         <v>291</v>
       </c>
-      <c r="I66" s="2" t="n">
-        <v>164</v>
+      <c r="I66" s="6">
+        <v>50</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>16</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>33</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="2" t="n">
-        <v>2031.66666666667</v>
-      </c>
-      <c r="G67" s="2" t="n">
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="2">
+        <v>2031.6666666666699</v>
+      </c>
+      <c r="G67" s="2">
         <v>237</v>
       </c>
-      <c r="H67" s="2" t="n">
-        <v>293.333333333333</v>
-      </c>
-      <c r="I67" s="2" t="n">
-        <v>169.666666666667</v>
+      <c r="H67" s="2">
+        <v>293.33333333333297</v>
+      </c>
+      <c r="I67" s="6">
+        <v>35</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>16</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>33</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="2" t="n">
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="2">
         <v>2002</v>
       </c>
-      <c r="G68" s="2" t="n">
+      <c r="G68" s="2">
         <v>226</v>
       </c>
-      <c r="H68" s="2" t="n">
+      <c r="H68" s="2">
         <v>297</v>
       </c>
-      <c r="I68" s="2" t="n">
-        <v>176</v>
+      <c r="I68" s="6">
+        <v>54</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="3"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>16</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>33</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="3" t="n">
-        <v>2002.66666666667</v>
-      </c>
-      <c r="G69" s="3" t="n">
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2002.6666666666699</v>
+      </c>
+      <c r="G69" s="3">
         <v>210</v>
       </c>
-      <c r="H69" s="3" t="n">
-        <v>305.333333333333</v>
-      </c>
-      <c r="I69" s="3" t="n">
-        <v>167.666666666667</v>
+      <c r="H69" s="3">
+        <v>305.33333333333297</v>
+      </c>
+      <c r="I69" s="7">
+        <v>23</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -2607,882 +2575,877 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>17</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>34</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="2" t="n">
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="2">
         <v>1927</v>
       </c>
-      <c r="G70" s="2" t="n">
+      <c r="G70" s="2">
         <v>248</v>
       </c>
-      <c r="H70" s="2" t="n">
+      <c r="H70" s="2">
         <v>269</v>
       </c>
-      <c r="I70" s="2" t="n">
-        <v>126</v>
+      <c r="I70" s="6">
+        <v>56</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>17</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>34</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="2" t="n">
-        <v>1954.66666666667</v>
-      </c>
-      <c r="G71" s="2" t="n">
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1954.6666666666699</v>
+      </c>
+      <c r="G71" s="2">
         <v>232</v>
       </c>
-      <c r="H71" s="2" t="n">
-        <v>278.333333333333</v>
-      </c>
-      <c r="I71" s="2" t="n">
-        <v>121.666666666667</v>
+      <c r="H71" s="2">
+        <v>278.33333333333297</v>
+      </c>
+      <c r="I71" s="6">
+        <v>14</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>17</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>34</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="2" t="n">
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="2">
         <v>2026</v>
       </c>
-      <c r="G72" s="2" t="n">
+      <c r="G72" s="2">
         <v>198</v>
       </c>
-      <c r="H72" s="2" t="n">
+      <c r="H72" s="2">
         <v>254</v>
       </c>
-      <c r="I72" s="2" t="n">
-        <v>140</v>
+      <c r="I72" s="6">
+        <v>55</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>17</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>34</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="3" t="n">
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="3">
         <v>2040</v>
       </c>
-      <c r="G73" s="3" t="n">
+      <c r="G73" s="3">
         <v>218</v>
       </c>
-      <c r="H73" s="3" t="n">
-        <v>261.333333333333</v>
-      </c>
-      <c r="I73" s="3" t="n">
-        <v>135.333333333333</v>
+      <c r="H73" s="3">
+        <v>261.33333333333297</v>
+      </c>
+      <c r="I73" s="7">
+        <v>20</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>18</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>35</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="2" t="n">
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="2">
         <v>1966</v>
       </c>
-      <c r="G74" s="2" t="n">
+      <c r="G74" s="2">
         <v>148</v>
       </c>
-      <c r="H74" s="2" t="n">
+      <c r="H74" s="2">
         <v>341</v>
       </c>
-      <c r="I74" s="2" t="n">
-        <v>178</v>
+      <c r="I74" s="6">
+        <v>55</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>18</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>35</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="2" t="n">
-        <v>1996.33333333333</v>
-      </c>
-      <c r="G75" s="2" t="n">
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="2">
+        <v>1996.3333333333301</v>
+      </c>
+      <c r="G75" s="2">
         <v>153</v>
       </c>
-      <c r="H75" s="2" t="n">
+      <c r="H75" s="2">
         <v>312</v>
       </c>
-      <c r="I75" s="2" t="n">
-        <v>174</v>
+      <c r="I75" s="6">
+        <v>17</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>18</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>35</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="2" t="n">
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="2">
         <v>1966</v>
       </c>
-      <c r="G76" s="2" t="n">
+      <c r="G76" s="2">
         <v>203</v>
       </c>
-      <c r="H76" s="2" t="n">
+      <c r="H76" s="2">
         <v>252</v>
       </c>
-      <c r="I76" s="2" t="n">
-        <v>134</v>
+      <c r="I76" s="6">
+        <v>67</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>18</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>35</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D77" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="3" t="n">
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="3">
         <v>1987</v>
       </c>
-      <c r="G77" s="3" t="n">
+      <c r="G77" s="3">
         <v>188.666666666667</v>
       </c>
-      <c r="H77" s="3" t="n">
-        <v>312.666666666667</v>
-      </c>
-      <c r="I77" s="3" t="n">
-        <v>146</v>
+      <c r="H77" s="3">
+        <v>312.66666666666703</v>
+      </c>
+      <c r="I77" s="7">
+        <v>24</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>19</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>36</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="2" t="n">
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="2">
         <v>1796</v>
       </c>
-      <c r="G78" s="2" t="n">
+      <c r="G78" s="2">
         <v>172</v>
       </c>
-      <c r="H78" s="2" t="n">
+      <c r="H78" s="2">
         <v>205</v>
       </c>
-      <c r="I78" s="2" t="n">
-        <v>147</v>
+      <c r="I78" s="6">
+        <v>64</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>19</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>36</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="2" t="n">
-        <v>1747.66666666667</v>
-      </c>
-      <c r="G79" s="2" t="n">
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1747.6666666666699</v>
+      </c>
+      <c r="G79" s="2">
         <v>164.666666666667</v>
       </c>
-      <c r="H79" s="2" t="n">
+      <c r="H79" s="2">
         <v>223.333333333333</v>
       </c>
-      <c r="I79" s="2" t="n">
-        <v>133.333333333333</v>
+      <c r="I79" s="6">
+        <v>31</v>
       </c>
       <c r="R79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>19</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>36</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="2" t="n">
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="2">
         <v>1862</v>
       </c>
-      <c r="G80" s="2" t="n">
+      <c r="G80" s="2">
         <v>187</v>
       </c>
-      <c r="H80" s="2" t="n">
+      <c r="H80" s="2">
         <v>186</v>
       </c>
-      <c r="I80" s="2" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+      <c r="I80" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>19</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>36</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="3" t="n">
-        <v>1796.33333333333</v>
-      </c>
-      <c r="G81" s="3" t="n">
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1796.3333333333301</v>
+      </c>
+      <c r="G81" s="3">
         <v>176</v>
       </c>
-      <c r="H81" s="3" t="n">
+      <c r="H81" s="3">
         <v>188.666666666667</v>
       </c>
-      <c r="I81" s="3" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="I81" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>20</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>37</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D82" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="2" t="n">
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="2">
         <v>2008</v>
       </c>
-      <c r="G82" s="2" t="n">
+      <c r="G82" s="2">
         <v>236</v>
       </c>
-      <c r="H82" s="2" t="n">
+      <c r="H82" s="2">
         <v>302</v>
       </c>
-      <c r="I82" s="2" t="n">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="I82" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>20</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>37</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D83" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="2" t="n">
-        <v>1932.33333333333</v>
-      </c>
-      <c r="G83" s="2" t="n">
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="2">
+        <v>1932.3333333333301</v>
+      </c>
+      <c r="G83" s="2">
         <v>216.333333333333</v>
       </c>
-      <c r="H83" s="2" t="n">
-        <v>277.333333333333</v>
-      </c>
-      <c r="I83" s="2" t="n">
-        <v>177.666666666667</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="H83" s="2">
+        <v>277.33333333333297</v>
+      </c>
+      <c r="I83" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>20</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>37</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="2" t="n">
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="2">
         <v>2034</v>
       </c>
-      <c r="G84" s="2" t="n">
+      <c r="G84" s="2">
         <v>212</v>
       </c>
-      <c r="H84" s="2" t="n">
+      <c r="H84" s="2">
         <v>270</v>
       </c>
-      <c r="I84" s="2" t="n">
-        <v>158</v>
+      <c r="I84" s="6">
+        <v>60</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
       <c r="S84" s="3"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>20</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>37</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="3" t="n">
-        <v>2031.66666666667</v>
-      </c>
-      <c r="G85" s="3" t="n">
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="3">
+        <v>2031.6666666666699</v>
+      </c>
+      <c r="G85" s="3">
         <v>211.666666666667</v>
       </c>
-      <c r="H85" s="3" t="n">
-        <v>267.666666666667</v>
-      </c>
-      <c r="I85" s="3" t="n">
-        <v>155.333333333333</v>
+      <c r="H85" s="3">
+        <v>267.66666666666703</v>
+      </c>
+      <c r="I85" s="7">
+        <v>23</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
       <c r="S85" s="3"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>21</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>38</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D86" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="2" t="n">
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="2">
         <v>2204</v>
       </c>
-      <c r="G86" s="2" t="n">
+      <c r="G86" s="2">
         <v>352</v>
       </c>
-      <c r="H86" s="2" t="n">
+      <c r="H86" s="2">
         <v>314</v>
       </c>
-      <c r="I86" s="2" t="n">
-        <v>109</v>
+      <c r="I86" s="6">
+        <v>56</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
       <c r="S86" s="3"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>21</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>38</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="2" t="n">
-        <v>2148.66666666667</v>
-      </c>
-      <c r="G87" s="2" t="n">
-        <v>287.333333333333</v>
-      </c>
-      <c r="H87" s="2" t="n">
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="2">
+        <v>2148.6666666666702</v>
+      </c>
+      <c r="G87" s="2">
+        <v>287.33333333333297</v>
+      </c>
+      <c r="H87" s="2">
         <v>328</v>
       </c>
-      <c r="I87" s="2" t="n">
-        <v>105</v>
+      <c r="I87" s="6">
+        <v>33</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
       <c r="S87" s="3"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>21</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>38</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="2" t="n">
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="2">
         <v>2068</v>
       </c>
-      <c r="G88" s="2" t="n">
+      <c r="G88" s="2">
         <v>217</v>
       </c>
-      <c r="H88" s="2" t="n">
+      <c r="H88" s="2">
         <v>290</v>
       </c>
-      <c r="I88" s="2" t="n">
-        <v>128</v>
+      <c r="I88" s="6">
+        <v>63</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
       <c r="S88" s="3"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>21</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>38</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D89" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="3" t="n">
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="3">
         <v>2122</v>
       </c>
-      <c r="G89" s="3" t="n">
+      <c r="G89" s="3">
         <v>211</v>
       </c>
-      <c r="H89" s="3" t="n">
-        <v>279.333333333333</v>
-      </c>
-      <c r="I89" s="3" t="n">
-        <v>122.333333333333</v>
+      <c r="H89" s="3">
+        <v>279.33333333333297</v>
+      </c>
+      <c r="I89" s="7">
+        <v>30</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
       <c r="S89" s="3"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>22</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>39</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D90" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="2" t="n">
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="2">
         <v>1976</v>
       </c>
-      <c r="G90" s="2" t="n">
+      <c r="G90" s="2">
         <v>246</v>
       </c>
-      <c r="H90" s="2" t="n">
+      <c r="H90" s="2">
         <v>438</v>
       </c>
-      <c r="I90" s="2" t="n">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+      <c r="I90" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>22</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>39</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D91" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="2" t="n">
-        <v>1960.33333333333</v>
-      </c>
-      <c r="G91" s="2" t="n">
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1960.3333333333301</v>
+      </c>
+      <c r="G91" s="2">
         <v>258</v>
       </c>
-      <c r="H91" s="2" t="n">
-        <v>502.666666666667</v>
-      </c>
-      <c r="I91" s="2" t="n">
-        <v>169.333333333333</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+      <c r="H91" s="2">
+        <v>502.66666666666703</v>
+      </c>
+      <c r="I91" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>22</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>39</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D92" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="2" t="n">
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="2">
         <v>2005</v>
       </c>
-      <c r="G92" s="2" t="n">
+      <c r="G92" s="2">
         <v>234</v>
       </c>
-      <c r="H92" s="2" t="n">
+      <c r="H92" s="2">
         <v>428</v>
       </c>
-      <c r="I92" s="2" t="n">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+      <c r="I92" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>22</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" t="s">
         <v>39</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D93" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="3" t="n">
-        <v>2030.33333333333</v>
-      </c>
-      <c r="G93" s="3" t="n">
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="3">
+        <v>2030.3333333333301</v>
+      </c>
+      <c r="G93" s="3">
         <v>222.666666666667</v>
       </c>
-      <c r="H93" s="3" t="n">
-        <v>521.333333333333</v>
-      </c>
-      <c r="I93" s="3" t="n">
-        <v>195.333333333333</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+      <c r="H93" s="3">
+        <v>521.33333333333303</v>
+      </c>
+      <c r="I93" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>23</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>40</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D94" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="2" t="n">
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="2">
         <v>2034</v>
       </c>
-      <c r="G94" s="2" t="n">
+      <c r="G94" s="2">
         <v>181</v>
       </c>
-      <c r="H94" s="2" t="n">
+      <c r="H94" s="2">
         <v>241</v>
       </c>
-      <c r="I94" s="2" t="n">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+      <c r="I94" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>23</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" t="s">
         <v>40</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D95" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="2" t="n">
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="2">
         <v>2132</v>
       </c>
-      <c r="G95" s="2" t="n">
+      <c r="G95" s="2">
         <v>173.666666666667</v>
       </c>
-      <c r="H95" s="2" t="n">
-        <v>277.333333333333</v>
-      </c>
-      <c r="I95" s="2" t="n">
-        <v>137.666666666667</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+      <c r="H95" s="2">
+        <v>277.33333333333297</v>
+      </c>
+      <c r="I95" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>23</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" t="s">
         <v>40</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="2" t="n">
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="2">
         <v>1986</v>
       </c>
-      <c r="G96" s="2" t="n">
+      <c r="G96" s="2">
         <v>179</v>
       </c>
-      <c r="H96" s="2" t="n">
+      <c r="H96" s="2">
         <v>220</v>
       </c>
-      <c r="I96" s="2" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+      <c r="I96" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>23</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" t="s">
         <v>40</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="3" t="n">
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="3">
         <v>2081</v>
       </c>
-      <c r="G97" s="3" t="n">
+      <c r="G97" s="3">
         <v>192.333333333333</v>
       </c>
-      <c r="H97" s="3" t="n">
+      <c r="H97" s="3">
         <v>268</v>
       </c>
-      <c r="I97" s="3" t="n">
-        <v>140.666666666667</v>
+      <c r="I97" s="7">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>